--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/81.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/81.xlsx
@@ -479,13 +479,13 @@
         <v>-3.38774104074058</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.86989033153604</v>
+        <v>-10.00206385431835</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5578919225307233</v>
+        <v>-2.923003338585696</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.826152489983038</v>
+        <v>-6.457283583012489</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.356792529241493</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.49432771557216</v>
+        <v>-10.57932967121573</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5460695730646447</v>
+        <v>-3.03385586674659</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.739900398861746</v>
+        <v>-6.383141872019795</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.28754627730313</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.89317162934251</v>
+        <v>-10.80208211176486</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5348625618321271</v>
+        <v>-2.964872523073536</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.165554165498065</v>
+        <v>-6.032687109552471</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.177710622372444</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.48028285797687</v>
+        <v>-11.29714135911905</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5174367067497897</v>
+        <v>-3.062318533124503</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.917350288224623</v>
+        <v>-5.741226263689966</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.02956992615306</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.88937804487228</v>
+        <v>-11.77751104268482</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6411196916955759</v>
+        <v>-3.182204750246188</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.513662222402841</v>
+        <v>-5.443821512337316</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.837504177540916</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.57431496034003</v>
+        <v>-12.32683788531796</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.42088097329206</v>
+        <v>-3.049605907065187</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.030176570760739</v>
+        <v>-5.117194741041934</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.589929923213687</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.32092971449514</v>
+        <v>-12.95346168392865</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5717828558457947</v>
+        <v>-3.077348496786804</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.763001946669635</v>
+        <v>-4.936115100438021</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.276941757882781</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.91732338584429</v>
+        <v>-13.3940045822499</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5285913487709404</v>
+        <v>-3.154894206518348</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.428022286161232</v>
+        <v>-4.785841648420689</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.890852057884266</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.62028840232508</v>
+        <v>-14.05775815171972</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4771385986029569</v>
+        <v>-3.052407659873316</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.311265129418719</v>
+        <v>-4.76460593321141</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.439175031512255</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.11012382084542</v>
+        <v>-14.52418453275906</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5740347319345716</v>
+        <v>-3.121063695975328</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.093108087167037</v>
+        <v>-4.742479941408893</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.9466650669518824</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.66957101357522</v>
+        <v>-15.08090852649777</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5203170133749695</v>
+        <v>-3.141998288219248</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.799696488181114</v>
+        <v>-4.487913204954371</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4448466624527262</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.03369414020931</v>
+        <v>-15.22965017908262</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5255408422088181</v>
+        <v>-3.185150518385577</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.252791721573692</v>
+        <v>-4.01080350479619</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02761823372094013</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.89333474479704</v>
+        <v>-15.89790750073001</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2639435391282896</v>
+        <v>-2.941332562564112</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.813021269120113</v>
+        <v>-3.617968958030199</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.440809349674604</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.55363194631665</v>
+        <v>-16.54441850735728</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1259637594793386</v>
+        <v>-2.854596056237677</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.693684928717779</v>
+        <v>-3.552415797701677</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7822185098093992</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.37451933449288</v>
+        <v>-17.27363359103574</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06121689424881901</v>
+        <v>-2.689724686551821</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.339407213820672</v>
+        <v>-3.297482476767586</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.050823703031965</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.20358941194518</v>
+        <v>-17.8003107497527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3532930783448859</v>
+        <v>-2.551797276114236</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.127063154030717</v>
+        <v>-2.985545269260621</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.261512129059579</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.85977563037249</v>
+        <v>-18.23261858958649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.289245532843162</v>
+        <v>-2.617075498083083</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.980730485168745</v>
+        <v>-2.882521938199079</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.436422902825363</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.3626247979175</v>
+        <v>-18.75098213599895</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6469927079933268</v>
+        <v>-2.399717086304747</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.521216840029843</v>
+        <v>-2.510857645128159</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.595463899903093</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.81258106198194</v>
+        <v>-19.07454530842937</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8802058985129932</v>
+        <v>-2.147506964361736</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.128382293263853</v>
+        <v>-2.107575440694471</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.762129207364826</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.40139428998573</v>
+        <v>-19.68180559113715</v>
       </c>
       <c r="F21" t="n">
-        <v>1.021602769203635</v>
+        <v>-1.900612317372465</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.980439271152348</v>
+        <v>-2.049092123900481</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.954208962028257</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.83766909758057</v>
+        <v>-20.2009808603258</v>
       </c>
       <c r="F22" t="n">
-        <v>1.182114402043196</v>
+        <v>-1.741265899485817</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.908955297636524</v>
+        <v>-2.022449287617568</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.182432067617383</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.21349674295516</v>
+        <v>-20.38456113077248</v>
       </c>
       <c r="F23" t="n">
-        <v>1.397286399246964</v>
+        <v>-1.616090392016075</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.627889740230349</v>
+        <v>-1.821312239060131</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.457905173657765</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.856734673872</v>
+        <v>-20.84806792827811</v>
       </c>
       <c r="F24" t="n">
-        <v>1.601761985029042</v>
+        <v>-1.404649701122199</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.682118058600778</v>
+        <v>-2.000454218843468</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.780873546959952</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.99766022166034</v>
+        <v>-21.01043866812119</v>
       </c>
       <c r="F25" t="n">
-        <v>1.816737597690184</v>
+        <v>-1.204952805877351</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.791216218180881</v>
+        <v>-2.087635863466522</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.147272768763459</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.11152397947484</v>
+        <v>-21.16733682537644</v>
       </c>
       <c r="F26" t="n">
-        <v>1.897857506097519</v>
+        <v>-1.185641659185805</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.847054889800843</v>
+        <v>-2.32822002048608</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.551918854505443</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.09635000048127</v>
+        <v>-21.22763997226543</v>
       </c>
       <c r="F27" t="n">
-        <v>1.855647921735794</v>
+        <v>-1.084608358156205</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.946045791587134</v>
+        <v>-2.604245041298191</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.981893202047311</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.06241475151552</v>
+        <v>-21.17423646897403</v>
       </c>
       <c r="F28" t="n">
-        <v>1.866069394797808</v>
+        <v>-0.9910900389577555</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.941463485592529</v>
+        <v>-2.65733432932139</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.425135863167517</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.15887883885336</v>
+        <v>-21.19576021484583</v>
       </c>
       <c r="F29" t="n">
-        <v>2.024407705365643</v>
+        <v>-0.8650635318033003</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.079456357544322</v>
+        <v>-2.964440477079759</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.868492127253909</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.02959234829131</v>
+        <v>-21.21060688626834</v>
       </c>
       <c r="F30" t="n">
-        <v>2.007125865614565</v>
+        <v>-0.9422557493581172</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.299996198913198</v>
+        <v>-3.138973966262809</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.294642114751446</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.57291973286907</v>
+        <v>-21.05014762264015</v>
       </c>
       <c r="F31" t="n">
-        <v>1.753658882598748</v>
+        <v>-1.01478710710128</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.301095952351903</v>
+        <v>-3.20193485062867</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.691094370473603</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.41009076242652</v>
+        <v>-20.93023522091278</v>
       </c>
       <c r="F32" t="n">
-        <v>1.857088075048384</v>
+        <v>-1.067195595376709</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.653959698542104</v>
+        <v>-3.559485641236209</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.04454137162144</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.24897688365624</v>
+        <v>-20.85848940134012</v>
       </c>
       <c r="F33" t="n">
-        <v>1.711684959688174</v>
+        <v>-1.139910245359656</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.743065911682891</v>
+        <v>-3.495647572579952</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.343042099029517</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.74233094828712</v>
+        <v>-20.44029506396971</v>
       </c>
       <c r="F34" t="n">
-        <v>1.548738158520051</v>
+        <v>-1.271841381095729</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.840799952396377</v>
+        <v>-3.47014376664427</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.584064456960925</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.22337824824679</v>
+        <v>-20.14865092586742</v>
       </c>
       <c r="F35" t="n">
-        <v>1.558819231708181</v>
+        <v>-1.32122554741472</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.858958976437851</v>
+        <v>-3.422841276477114</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.764825875048789</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.80582543371561</v>
+        <v>-19.92363351692667</v>
       </c>
       <c r="F36" t="n">
-        <v>1.447901242033077</v>
+        <v>-1.479563857982555</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.906117451273748</v>
+        <v>-3.365654097664454</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.88414199925693</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.33922885273934</v>
+        <v>-19.60187708228841</v>
       </c>
       <c r="F37" t="n">
-        <v>1.360732689712865</v>
+        <v>-1.477311981893778</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.924132459983963</v>
+        <v>-3.15028571591806</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.941888414935804</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.75522049987847</v>
+        <v>-19.2954779188835</v>
       </c>
       <c r="F38" t="n">
-        <v>1.472645694403939</v>
+        <v>-1.555184999196365</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.736742329410338</v>
+        <v>-2.852003780275016</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.9342783937251</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.35243580295276</v>
+        <v>-19.12107535272886</v>
       </c>
       <c r="F39" t="n">
-        <v>1.306111602257184</v>
+        <v>-1.501702942087914</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.711029046629188</v>
+        <v>-2.533834636615389</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.86072640007335</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.87854680929365</v>
+        <v>-18.785637461621</v>
       </c>
       <c r="F40" t="n">
-        <v>1.343503219173154</v>
+        <v>-1.689289457204165</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.791887108979688</v>
+        <v>-2.699989051979734</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>6.732552382225546</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.27876223150849</v>
+        <v>-18.42525873359965</v>
       </c>
       <c r="F41" t="n">
-        <v>1.356778814254664</v>
+        <v>-1.595339092011939</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.662469695389226</v>
+        <v>-2.277133854797666</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>6.568896376585224</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.65449504740931</v>
+        <v>-17.91532663021726</v>
       </c>
       <c r="F42" t="n">
-        <v>1.337794975134161</v>
+        <v>-1.669546264518842</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.831373494350334</v>
+        <v>-2.174398554398641</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.38590432333458</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.11725240029908</v>
+        <v>-17.54036307683022</v>
       </c>
       <c r="F43" t="n">
-        <v>1.198348857566937</v>
+        <v>-1.933735843562032</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.716567090731238</v>
+        <v>-2.056358351977638</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.194822715184913</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.73809931000269</v>
+        <v>-17.36315875786746</v>
       </c>
       <c r="F44" t="n">
-        <v>1.172439190243161</v>
+        <v>-2.056305982766272</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.633012013995342</v>
+        <v>-1.905521930938113</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.998248156068808</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.46808365619493</v>
+        <v>-17.23122762213139</v>
       </c>
       <c r="F45" t="n">
-        <v>1.201320810312009</v>
+        <v>-1.945427269999694</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.836021261859146</v>
+        <v>-1.843254938622864</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.793864478661973</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.86439757216295</v>
+        <v>-16.82510438798105</v>
       </c>
       <c r="F46" t="n">
-        <v>1.274480598591574</v>
+        <v>-2.104721318674975</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.777760514213466</v>
+        <v>-1.689525118655316</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.579397511060786</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.49643840079623</v>
+        <v>-16.87619055366946</v>
       </c>
       <c r="F47" t="n">
-        <v>1.24092502640823</v>
+        <v>-2.04817566270156</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.644533240496061</v>
+        <v>-1.566247995097623</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.34914515648044</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.10215060841481</v>
+        <v>-16.7243722099168</v>
       </c>
       <c r="F48" t="n">
-        <v>1.224049048045245</v>
+        <v>-2.160232682723893</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.654601221381348</v>
+        <v>-1.368384022250617</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.098802899304979</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.61215808226037</v>
+        <v>-16.30100641292391</v>
       </c>
       <c r="F49" t="n">
-        <v>1.173682959013125</v>
+        <v>-2.195529531185187</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.56199936338182</v>
+        <v>-1.29581338759893</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.826674813788054</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.24900378603657</v>
+        <v>-16.06296216265565</v>
       </c>
       <c r="F50" t="n">
-        <v>1.032246811413958</v>
+        <v>-2.378324263461366</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.650542607500413</v>
+        <v>-1.12211780579775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.525912736849375</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.69694065210951</v>
+        <v>-15.5865856314566</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9653058669842126</v>
+        <v>-2.48052277944388</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.706616940571526</v>
+        <v>-1.074854592539119</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.193891750646513</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.28589471209068</v>
+        <v>-15.40828155905514</v>
       </c>
       <c r="F52" t="n">
-        <v>1.055878418043274</v>
+        <v>-2.388811198037589</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.856078669812671</v>
+        <v>-1.048224848559048</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.830709721930842</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.73091199462991</v>
+        <v>-14.96405972363537</v>
       </c>
       <c r="F53" t="n">
-        <v>1.19177652154039</v>
+        <v>-2.249692388041407</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.985024760500831</v>
+        <v>-1.095776092480197</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.433445680358467</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.348079967235</v>
+        <v>-14.66030520540448</v>
       </c>
       <c r="F54" t="n">
-        <v>1.076394056596258</v>
+        <v>-2.428860552430429</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.097265072762949</v>
+        <v>-1.276633163935801</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.007619369338197</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.85121398208865</v>
+        <v>-14.24420563648875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8613529824209076</v>
+        <v>-2.478218534143736</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.257344659608734</v>
+        <v>-1.314784134416591</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.556412422849784</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.67296227889855</v>
+        <v>-14.32800946697863</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9476836273592494</v>
+        <v>-2.3159263481177</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.364793189030779</v>
+        <v>-1.217678524239509</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.081744917530913</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.31115648986745</v>
+        <v>-14.12600832643364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8965712770651508</v>
+        <v>-2.469499060451147</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.49503541770027</v>
+        <v>-1.441648548952916</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.592176014451683</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.04466266552412</v>
+        <v>-14.07377003809516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9650440209273782</v>
+        <v>-2.334203202884749</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.899954159989174</v>
+        <v>-1.816808486882577</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.092002759254126</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.61122888764594</v>
+        <v>-13.761021107812</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8962570617969494</v>
+        <v>-2.329031743262267</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.080012600971433</v>
+        <v>-2.018783442821885</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.5870408357763593</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.12940595846473</v>
+        <v>-13.4397229037732</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7362822133738985</v>
+        <v>-2.368649051661331</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.154154311964128</v>
+        <v>-2.21216984809702</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08726260485527008</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.10525065972175</v>
+        <v>-13.41962621891115</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7656482486478902</v>
+        <v>-2.26123979914781</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.403065173591023</v>
+        <v>-2.363647791975791</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4033377695677098</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.76308332495324</v>
+        <v>-13.21335698763976</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6818967873693684</v>
+        <v>-2.264447413344033</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.745180139148167</v>
+        <v>-2.568699439082905</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.8756824122011065</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.53820993134375</v>
+        <v>-13.05012215580912</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6138299048952346</v>
+        <v>-2.344650860552447</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.749291122240469</v>
+        <v>-2.56509905580143</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.319965150735995</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.2891550543856</v>
+        <v>-12.84926004561136</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5342548882232235</v>
+        <v>-2.2205096450072</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.688883236928745</v>
+        <v>-2.657517621561174</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.732366810995679</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.2649342941284</v>
+        <v>-12.70507451441543</v>
       </c>
       <c r="F65" t="n">
-        <v>0.562481893149985</v>
+        <v>-2.213871847466445</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.677872610238853</v>
+        <v>-2.91992664741789</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.103922698743101</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.10501181491672</v>
+        <v>-12.63475575585252</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5390466710632953</v>
+        <v>-2.275444947731083</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.749683891325721</v>
+        <v>-2.902422238518502</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.429566118548045</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.99722288562079</v>
+        <v>-12.69541239491823</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3300935177093473</v>
+        <v>-2.409510128830358</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.862447895701507</v>
+        <v>-2.855355409802497</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.707899194583822</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.98883071949924</v>
+        <v>-12.69979831637021</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3261265499483043</v>
+        <v>-2.465924861775355</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.678383210049681</v>
+        <v>-2.916195341107998</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.936484734359938</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.96169037570834</v>
+        <v>-12.5322430246018</v>
       </c>
       <c r="F69" t="n">
-        <v>0.315102830955571</v>
+        <v>-2.287437497134104</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.468631426222387</v>
+        <v>-2.70944169463146</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.118503727643342</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.92432494339806</v>
+        <v>-12.63847396985957</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01957027890928839</v>
+        <v>-2.557138935673661</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.275690159243871</v>
+        <v>-2.6558941760088</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.258023739354532</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.76123412689868</v>
+        <v>-12.57474063962604</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05234031292212874</v>
+        <v>-2.567573501038516</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.29570829028887</v>
+        <v>-2.510373229923015</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.35921441675115</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.93415726283219</v>
+        <v>-12.67968853920532</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1132718903475219</v>
+        <v>-2.645983302757614</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.130247766975136</v>
+        <v>-2.476817657739671</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.428808794849705</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.11599625700093</v>
+        <v>-12.77396621196859</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.01556946191790438</v>
+        <v>-2.664718388124124</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.059169654847405</v>
+        <v>-2.35423442623259</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.470560501923989</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.47464680104717</v>
+        <v>-13.04632538798502</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.05263377126283087</v>
+        <v>-2.719575137030956</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.049023120145067</v>
+        <v>-2.404116100059567</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.485707321999887</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.91291163867395</v>
+        <v>-13.34472515435364</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1033533524716777</v>
+        <v>-2.79765763117901</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.859538221116765</v>
+        <v>-2.237961684695221</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.471968364932477</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.94998904032172</v>
+        <v>-13.4832417184191</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1478671821335463</v>
+        <v>-2.985623823077672</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.626573784351092</v>
+        <v>-1.846514922030453</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.42452126305021</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.34406735585767</v>
+        <v>-13.98186207214624</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.1914907352021775</v>
+        <v>-3.074533651675833</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.438005346521711</v>
+        <v>-1.579719974721759</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.337124487992833</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.17748407785343</v>
+        <v>-14.74270815949031</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.3760529283619899</v>
+        <v>-3.284547281559961</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.331263801453119</v>
+        <v>-1.451768899049571</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.203030721223481</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.76424181431107</v>
+        <v>-15.17873421333115</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4336066916542177</v>
+        <v>-3.223694257951618</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.300287412929594</v>
+        <v>-1.351350936253532</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.016926009837277</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.3179283937905</v>
+        <v>-15.7045603723634</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4643343264237488</v>
+        <v>-3.384939059750317</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.967821474566803</v>
+        <v>-1.184358613507316</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.770477065244631</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.00075744850073</v>
+        <v>-16.33516423103798</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.4512551158848645</v>
+        <v>-3.542085970759555</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.541378986406102</v>
+        <v>-0.9295824002073264</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.458772965401129</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.93404225657317</v>
+        <v>-17.08750032153492</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6968274402871203</v>
+        <v>-3.787252433773717</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.39732437823859</v>
+        <v>-0.8801196800712853</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.082285243404668</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6769911659326</v>
+        <v>-17.96044270580985</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7829093314714692</v>
+        <v>-4.003694384353133</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.210484124384317</v>
+        <v>-0.9124445757875069</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.640169915491625</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.61445241861155</v>
+        <v>-18.78508758490165</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9262700475883697</v>
+        <v>-4.234328391212979</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.926341875810336</v>
+        <v>-0.704394791329638</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.14143105139133</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.64753985124647</v>
+        <v>-19.70390539833398</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9549683754174332</v>
+        <v>-4.382140490296066</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.936422948998465</v>
+        <v>-0.7082832052736306</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5979307315931653</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.91967964146847</v>
+        <v>-20.95655074962465</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.150593564478504</v>
+        <v>-4.599642917405661</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.642173442630672</v>
+        <v>-0.6643847138453232</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.02187349319507828</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.01606835834314</v>
+        <v>-22.04389268523568</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.123309205356347</v>
+        <v>-4.623955323782747</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.854726979266094</v>
+        <v>-0.8855137088420765</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.5660461166132676</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.56147069347764</v>
+        <v>-23.4897411495617</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.056774122314695</v>
+        <v>-4.684062086129111</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.622574265276608</v>
+        <v>-0.8163470729292376</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.147187759573694</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.84226449587802</v>
+        <v>-24.87150279147747</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.334893911581482</v>
+        <v>-4.919723537280181</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.733374424226136</v>
+        <v>-1.001773358076604</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.702202144815997</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.40377036350785</v>
+        <v>-26.40738702244604</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.296769125706376</v>
+        <v>-4.993681956033091</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.623975141680672</v>
+        <v>-1.150659025992713</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.209900677417519</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.08787255494759</v>
+        <v>-27.96501756843471</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.404152193614213</v>
+        <v>-5.232642667500275</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.775256701016817</v>
+        <v>-1.440601164725578</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.655239003933725</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72842974713576</v>
+        <v>-29.63983731715968</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.572244269799134</v>
+        <v>-5.360803220017932</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.021064686870224</v>
+        <v>-1.621157113215822</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.021474102150925</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.55282905582745</v>
+        <v>-31.3640281399008</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.676328077390856</v>
+        <v>-5.489945695248718</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.026995500057526</v>
+        <v>-2.048411324152711</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.293321761714473</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.32978185902072</v>
+        <v>-33.03941085764796</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.557148844622624</v>
+        <v>-5.456861445967675</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.403595591299776</v>
+        <v>-2.491009714020103</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.463507339121536</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.18483024866489</v>
+        <v>-34.99273007242212</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.886655922543185</v>
+        <v>-5.656113202915905</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.469698628347651</v>
+        <v>-2.667703433172037</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.520561166678224</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.16894255972279</v>
+        <v>-36.84017183411524</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.115771222273392</v>
+        <v>-5.967906395091611</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.925297674936877</v>
+        <v>-3.237467360541114</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.468899193749245</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.32080654709173</v>
+        <v>-38.92506869244875</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.183131120394072</v>
+        <v>-5.994653969797257</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.075152173263273</v>
+        <v>-3.536875234228548</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.30238330232496</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.56189457832703</v>
+        <v>-41.17503330501074</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.323624622188635</v>
+        <v>-6.162719861376495</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.515197564076528</v>
+        <v>-4.037930756284246</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.048233397166588</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.69371425004528</v>
+        <v>-43.11773466218026</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.528466792450281</v>
+        <v>-6.256840426505663</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.709055292253966</v>
+        <v>-4.31390340788499</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.698189897344141</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.8865178684003</v>
+        <v>-45.18299306625119</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.670858678156893</v>
+        <v>-6.371031491891198</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.760940088415726</v>
+        <v>-4.385374289097973</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.319908859316422</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.88736214248993</v>
+        <v>-47.33840506769023</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.783125175024694</v>
+        <v>-6.478715682764395</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.263304840755597</v>
+        <v>-4.8910513940568</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.8709443380244</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.17398520300875</v>
+        <v>-49.49146045461777</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.084680186378171</v>
+        <v>-6.910866414964089</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.583778229715368</v>
+        <v>-5.306889116915704</v>
       </c>
     </row>
   </sheetData>
